--- a/review_info.xlsx
+++ b/review_info.xlsx
@@ -14,7 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>overall_rating</t>
+  </si>
+  <si>
+    <t>quality_rating</t>
+  </si>
+  <si>
+    <t>total_reviews</t>
+  </si>
+  <si>
+    <t>sense_of_fit_rating</t>
+  </si>
+  <si>
+    <t>comfort_rating</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -31,40 +49,58 @@
     <t>recommendation</t>
   </si>
   <si>
-    <t>HT8838</t>
-  </si>
-  <si>
-    <t>HT2000</t>
-  </si>
-  <si>
-    <t>HT2001</t>
-  </si>
-  <si>
-    <t>HS9805</t>
-  </si>
-  <si>
-    <t>HS9806</t>
-  </si>
-  <si>
-    <t>HT6451</t>
-  </si>
-  <si>
-    <t>HT6457</t>
-  </si>
-  <si>
-    <t>GM4014</t>
-  </si>
-  <si>
-    <t>HR9042</t>
-  </si>
-  <si>
-    <t>HR9081</t>
-  </si>
-  <si>
-    <t>HY5374</t>
-  </si>
-  <si>
-    <t>HY5375</t>
+    <t>IC7412</t>
+  </si>
+  <si>
+    <t>3 / 5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3.3 / 5</t>
+  </si>
+  <si>
+    <t>4 / 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRIPE3 </t>
+  </si>
+  <si>
+    <t>新色を購入してみました</t>
+  </si>
+  <si>
+    <t>札幌ファクトリーのショップでＴシャツを探していて馴染みの店員さんが勧めてくれました。いつもはＭサイズですが、かなり大きめでＳサイズを購入しました。秋色なので今の季節にピッタリです。</t>
+  </si>
+  <si>
+    <t>はい、私はこの商品を推薦します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kkkk </t>
+  </si>
+  <si>
+    <t>1 / 5</t>
+  </si>
+  <si>
+    <t>洗濯1回で首元がヨレるゴミ</t>
+  </si>
+  <si>
+    <t>首元が洗濯でヨレるゴミ。購入後1回着て洗濯、特に乱雑に扱った訳ではないが、乾いた後に首元のヨレを確認。2回目着ることなく捨てた。</t>
+  </si>
+  <si>
+    <t>いいえ、私はこの商品を推薦しません。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teppie </t>
+  </si>
+  <si>
+    <t>5 / 5</t>
+  </si>
+  <si>
+    <t>爽やかな色です</t>
+  </si>
+  <si>
+    <t>生地感はしっかりしていて、薄くもなく厚くもないです色がとても爽やかです丈は長めです胸まわりがゆったりしていてルーズシルエットです</t>
   </si>
 </sst>
 </file>
@@ -396,87 +432,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="G10" t="s">
         <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
